--- a/downloaded_files/EPES308_Lecture-35402.xlsx
+++ b/downloaded_files/EPES308_Lecture-35402.xlsx
@@ -2373,11 +2373,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Automatic Control Systems (EPES308) Location : [18203]18203-30-الجيزة الرئيسي Time : Monday(13:15)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Automatic Control Systems (EPES308) Location : [20504]20504-60-الجيزة الرئيسي Time : Monday(13:15)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Automatic Control Systems (EPES308) Location : [18203]18203-30-الجيزة الرئيسي Time : Monday(13:15)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Automatic Control Systems (EPES308) Location : [20504]20504-60-الجيزة الرئيسي Time : Monday(13:15)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Automatic Control Systems (EPES308) Location : [18203]18203-30-الجيزة الرئيسي Time : Monday(13:15)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Automatic Control Systems (EPES308) Location : [20504]20504-60-الجيزة الرئيسي Time : Monday(13:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EPES308_Lecture-35402.xlsx
+++ b/downloaded_files/EPES308_Lecture-35402.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Aef Mohamed Lotfy Aly Maghraby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عبدالنبي عبدالوهاب محمد محجوب الشيخ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed abdelnaby abdelwahab mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220215</x:t>
@@ -551,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -859,7 +868,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.780625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="35.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.480625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1102,7 +1111,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.6709792824</x:v>
+        <x:v>45928.4063091435</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1134,7 +1143,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4174986458</x:v>
+        <x:v>45912.6709792824</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1166,7 +1175,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4174863773</x:v>
+        <x:v>45907.4174986458</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1198,7 +1207,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6713587616</x:v>
+        <x:v>45907.4174863773</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1230,7 +1239,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.672374456</x:v>
+        <x:v>45912.6713587616</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1262,7 +1271,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148637384</x:v>
+        <x:v>45912.672374456</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1294,7 +1303,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.4148637384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1326,7 +1335,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4173376157</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1358,7 +1367,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4176778935</x:v>
+        <x:v>45907.4173376157</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1390,7 +1399,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.4176778935</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1422,7 +1431,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4155109954</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1454,7 +1463,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6717197917</x:v>
+        <x:v>45907.4155109954</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1486,7 +1495,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45912.6717197917</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1518,7 +1527,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4170278935</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1550,7 +1559,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6701028935</x:v>
+        <x:v>45907.4170278935</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1582,7 +1591,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4173033218</x:v>
+        <x:v>45912.6701028935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1614,7 +1623,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4173033218</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,7 +1655,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6750978357</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1687,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45912.6750978357</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1719,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6748440162</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1751,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45912.6748440162</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1815,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6736113773</x:v>
+        <x:v>45907.4149399653</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.574996875</x:v>
+        <x:v>45912.6736113773</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45907.574996875</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.6703332523</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4170444097</x:v>
+        <x:v>45912.6703332523</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4170444097</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4143855324</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.6721754977</x:v>
+        <x:v>45907.4143855324</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4150756597</x:v>
+        <x:v>45912.6721754977</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.6719207176</x:v>
+        <x:v>45907.4150756597</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.6745544329</x:v>
+        <x:v>45912.6719207176</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.6707497685</x:v>
+        <x:v>45912.6745544329</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.6775489583</x:v>
+        <x:v>45912.6707497685</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.6729653588</x:v>
+        <x:v>45912.6775489583</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.6667431366</x:v>
+        <x:v>45912.6729653588</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2318,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45912.6667431366</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2350,7 +2359,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.6788863426</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2367,6 +2376,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45912.6788863426</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES308_Lecture-35402.xlsx
+++ b/downloaded_files/EPES308_Lecture-35402.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -364,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed shawket Moustafa Taha Khalaaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عبدالرحيم سالم عبدالهادي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED ABDALRAHIM SALEM ABDALHADY</x:t>
   </x:si>
   <x:si>
     <x:t>1230109</x:t>
@@ -560,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2135,7 +2144,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4150756597</x:v>
+        <x:v>45929.3923243056</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2176,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.6719207176</x:v>
+        <x:v>45907.4150756597</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.6745544329</x:v>
+        <x:v>45912.6719207176</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.6707497685</x:v>
+        <x:v>45912.6745544329</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2272,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.6775489583</x:v>
+        <x:v>45912.6707497685</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.6729653588</x:v>
+        <x:v>45912.6775489583</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.6667431366</x:v>
+        <x:v>45912.6729653588</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2368,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45912.6667431366</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2391,7 +2400,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.6788863426</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2408,6 +2417,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45912.6788863426</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES308_Lecture-35402.xlsx
+++ b/downloaded_files/EPES308_Lecture-35402.xlsx
@@ -102,7 +102,7 @@
     <x:t>احمد محمد فؤاد محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed fouad saleh</x:t>
+    <x:t>Ahmed Mohamed Fouad Mohamed Saleh</x:t>
   </x:si>
   <x:si>
     <x:t>2240005</x:t>
